--- a/test_data/test_datas.xlsx
+++ b/test_data/test_datas.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestScript\QCD_API\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217E306-1DE8-45B3-9580-CF34102407DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15820" windowWidth="29020" xWindow="28690" yWindow="-110"/>
+    <workbookView xWindow="30690" yWindow="1070" windowWidth="24370" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
   <si>
     <t>case_id</t>
   </si>
@@ -253,48 +259,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,48 +310,69 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -648,29 +672,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="5" width="14.4140625"/>
-    <col customWidth="1" max="3" min="3" style="10" width="25.83203125"/>
-    <col customWidth="1" max="4" min="4" style="8" width="8.6640625"/>
-    <col customWidth="1" max="5" min="5" style="5" width="20.75"/>
-    <col customWidth="1" max="6" min="6" style="7" width="39.83203125"/>
-    <col customWidth="1" max="7" min="7" style="8" width="28.75"/>
-    <col customWidth="1" max="8" min="8" style="11" width="29"/>
+    <col min="2" max="2" width="14.4140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +719,8 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="2" s="5" spans="1:9">
-      <c r="A2" t="n">
+    <row r="2" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -718,7 +738,7 @@
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>10001</v>
       </c>
       <c r="H2" t="s">
@@ -728,8 +748,8 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="3" s="5" spans="1:9">
-      <c r="A3" t="n">
+    <row r="3" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -747,7 +767,7 @@
       <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="8">
         <v>10001</v>
       </c>
       <c r="H3" t="s">
@@ -757,8 +777,8 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="4" s="5" spans="1:9">
-      <c r="A4" t="n">
+    <row r="4" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -776,7 +796,7 @@
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>20110</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -786,8 +806,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="5" s="5" spans="1:9">
-      <c r="A5" t="n">
+    <row r="5" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -805,7 +825,7 @@
       <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="8">
         <v>20103</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -815,8 +835,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="6" s="5" spans="1:9">
-      <c r="A6" t="n">
+    <row r="6" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -834,7 +854,7 @@
       <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>20103</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -844,8 +864,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="7" s="5" spans="1:9">
-      <c r="A7" t="n">
+    <row r="7" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -863,7 +883,7 @@
       <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="8">
         <v>20108</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -873,8 +893,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="8" s="5" spans="1:9">
-      <c r="A8" t="n">
+    <row r="8" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -892,7 +912,7 @@
       <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="8">
         <v>20108</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -902,8 +922,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="9" s="5" spans="1:9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -921,7 +941,7 @@
       <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="8">
         <v>20109</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -931,8 +951,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="10" s="5" spans="1:9">
-      <c r="A10" t="n">
+    <row r="10" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -950,7 +970,7 @@
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="8">
         <v>10001</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -960,8 +980,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="11" s="5" spans="1:9">
-      <c r="A11" t="n">
+    <row r="11" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -979,7 +999,7 @@
       <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="8">
         <v>20103</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -989,8 +1009,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="12" s="5" spans="1:9">
-      <c r="A12" t="n">
+    <row r="12" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1008,7 +1028,7 @@
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="8">
         <v>20103</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -1018,8 +1038,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="13" s="5" spans="1:9">
-      <c r="A13" t="n">
+    <row r="13" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1037,7 +1057,7 @@
       <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="8">
         <v>20111</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -1047,8 +1067,8 @@
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="14" s="5" spans="1:9">
-      <c r="A14" t="n">
+    <row r="14" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1066,7 +1086,7 @@
       <c r="F14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="8">
         <v>20111</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -1076,8 +1096,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1096,8 +1116,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1112,12 +1132,12 @@
       <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="8">
         <v>10001</v>
       </c>
     </row>
-    <row customHeight="1" ht="28" r="17" s="5" spans="1:9">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1135,7 +1155,7 @@
       <c r="F17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="8">
         <v>10001</v>
       </c>
       <c r="H17" t="s">
@@ -1145,8 +1165,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1161,9 +1181,12 @@
       <c r="E18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6" t="n">
+      <c r="G18" s="8">
+        <v>11012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1178,26 +1201,31 @@
       <c r="E19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="n">
+      <c r="G19" s="8">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6" t="n">
+      <c r="E20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1212,9 +1240,12 @@
       <c r="E21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6" t="n">
+      <c r="G21" s="8">
+        <v>11007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1229,9 +1260,12 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6" t="n">
+      <c r="G22" s="8">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1246,12 +1280,12 @@
       <c r="E23" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="8">
         <v>11003</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1266,12 +1300,12 @@
       <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="8">
         <v>11003</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1286,12 +1320,12 @@
       <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="8">
         <v>11003</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1306,12 +1340,12 @@
       <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="8">
         <v>11003</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1326,9 +1360,12 @@
       <c r="E27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6" t="n">
+      <c r="G27" s="8">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1343,9 +1380,12 @@
       <c r="E28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6" t="n">
+      <c r="G28" s="8">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1360,9 +1400,12 @@
       <c r="E29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6" t="n">
+      <c r="G29" s="8">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1377,9 +1420,12 @@
       <c r="E30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6" t="n">
+      <c r="G30" s="8">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1394,9 +1440,12 @@
       <c r="E31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6" t="n">
+      <c r="G31" s="8">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1411,9 +1460,12 @@
       <c r="E32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6" t="n">
+      <c r="G32" s="8">
+        <v>11006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1428,9 +1480,12 @@
       <c r="E33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="6" t="n">
+      <c r="G33" s="8">
+        <v>11008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1445,9 +1500,12 @@
       <c r="E34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="6" t="n">
+      <c r="G34" s="8">
+        <v>11009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1462,9 +1520,13 @@
       <c r="E35" t="s">
         <v>57</v>
       </c>
+      <c r="G35" s="8">
+        <v>11010</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_data/test_datas.xlsx
+++ b/test_data/test_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestScript\QCD_API\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217E306-1DE8-45B3-9580-CF34102407DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE252C-FE0E-45C0-99C8-6047D4820448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30690" yWindow="1070" windowWidth="24370" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="900" windowWidth="16800" windowHeight="8350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
   <si>
     <t>case_id</t>
   </si>
@@ -181,9 +181,15 @@
     <t>/member/list</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
+    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
+  </si>
+  <si>
     <t>获取用户列表-用户已登录</t>
   </si>
   <si>
@@ -196,9 +202,6 @@
     <t>/member/bidLoan</t>
   </si>
   <si>
-    <t>{'memberId':'${memberId}','pwd':'123456','loanId':'${loanId}','amount':'200'}</t>
-  </si>
-  <si>
     <t>投资金额大于可投金额</t>
   </si>
   <si>
@@ -253,7 +256,8 @@
     <t>标的状态不是竞标中</t>
   </si>
   <si>
-    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
+    <t>{'memberId':'${memberId}','password':'123456','loanId':'${loanId}','amount':'200'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -675,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1112,8 +1116,17 @@
       <c r="E15" t="s">
         <v>52</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1124,7 +1137,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>20</v>
@@ -1132,8 +1145,17 @@
       <c r="E16" t="s">
         <v>52</v>
       </c>
+      <c r="F16" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G16" s="8">
         <v>10001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
@@ -1141,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G17" s="8">
         <v>10001</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1170,16 +1192,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G18" s="8">
         <v>11012</v>
@@ -1190,16 +1212,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="8">
         <v>10001</v>
@@ -1210,16 +1232,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="12"/>
@@ -1229,16 +1251,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="8">
         <v>11007</v>
@@ -1249,16 +1271,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G22" s="8">
         <v>11005</v>
@@ -1269,16 +1291,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G23" s="8">
         <v>11003</v>
@@ -1289,16 +1311,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G24" s="8">
         <v>11003</v>
@@ -1309,16 +1331,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G25" s="8">
         <v>11003</v>
@@ -1329,16 +1351,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G26" s="8">
         <v>11003</v>
@@ -1349,16 +1371,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="8">
         <v>11004</v>
@@ -1369,16 +1391,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G28" s="8">
         <v>11001</v>
@@ -1389,16 +1411,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29" s="8">
         <v>11005</v>
@@ -1409,16 +1431,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G30" s="8">
         <v>11005</v>
@@ -1429,16 +1451,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G31" s="8">
         <v>11006</v>
@@ -1449,16 +1471,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G32" s="8">
         <v>11006</v>
@@ -1469,16 +1491,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G33" s="8">
         <v>11008</v>
@@ -1489,16 +1511,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G34" s="8">
         <v>11009</v>
@@ -1509,16 +1531,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G35" s="8">
         <v>11010</v>
